--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/word_level_predictions_17.xlsx
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>19</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>19</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13970,522 +13970,522 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>Drag</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>0</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
+      <c r="I261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
+      <c r="I262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B263" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>around</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B266" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F266" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D262" t="n">
-        <v>1</v>
-      </c>
-      <c r="E262" t="inlineStr">
+      <c r="D267" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B268" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
+      <c r="I268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B269" s="2" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C269" s="2" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E269" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
+      <c r="I269" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K269" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L269" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>box</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>2</v>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>screen</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E270" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F270" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>21</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>around</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>3</v>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>21</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>4</v>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>21</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>tap</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>5</v>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>21</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>6</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>21</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>7</v>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>21</v>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D269" t="n">
-        <v>8</v>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>21</v>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>screen</t>
-        </is>
-      </c>
-      <c r="D270" t="n">
-        <v>9</v>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori1/17/word_level_predictions_17.xlsx
@@ -12693,289 +12693,289 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>19</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>19</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>19</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D241" t="n">
-        <v>14</v>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13970,522 +13970,522 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>21</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>Drag</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>21</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="D262" t="n">
+        <v>1</v>
+      </c>
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>21</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>box</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>2</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>21</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>around</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>3</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>21</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>4</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>21</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>tap</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>5</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>21</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>6</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>21</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>7</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="n">
+      <c r="A269" t="n">
         <v>21</v>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B269" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C269" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D269" s="2" t="n">
+      <c r="D269" t="n">
         <v>8</v>
       </c>
-      <c r="E269" s="2" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F269" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" s="2" t="inlineStr">
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="2" t="n">
+      <c r="A270" t="n">
         <v>21</v>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B270" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C270" t="inlineStr">
         <is>
           <t>screen</t>
         </is>
       </c>
-      <c r="D270" s="2" t="n">
+      <c r="D270" t="n">
         <v>9</v>
       </c>
-      <c r="E270" s="2" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
